--- a/Results/Results_SP500_horizon5.xlsx
+++ b/Results/Results_SP500_horizon5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -585,22 +585,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.58 (0.31)</t>
+          <t>0.54 (0.25)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.29 (1.15)</t>
+          <t>2.18 (0.97)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.05 (0.03)</t>
+          <t>0.04 (0.03)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>48.41 (6.27)</t>
+          <t>46.14 (6.59)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -610,31 +610,31 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>max\_depth: 12, max\_features: 2 \\</t>
+          <t>max\_depth: 8, max\_features: 2 \\</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.39324636 1.34691493 0.67802034 0.52300886 0.37939426 0.49816754
- 0.20172467 0.68518063 0.27372466 0.77650404]</t>
+          <t>[0.46650602 1.05060962 0.71165001 0.46056884 0.38443087 0.41540564
+ 0.2045027  0.68960304 0.2636569  0.77809579]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[1.73930925 4.83571811 3.10344767 1.99494676 1.36295825 2.01964124
- 0.97365862 2.53414861 0.97192174 3.37025255]</t>
+          <t>[2.06333316 3.7719175  3.25737803 1.75677772 1.3810521  1.68411285
+ 0.98706727 2.55050494 0.93617385 3.3771612 ]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.08832574 0.09119611 0.0528952  0.05473163 0.02048259 0.04430464
- 0.00721409 0.03526798 0.01400283 0.04416374]</t>
+          <t>[0.11613631 0.065707   0.05655244 0.04704646 0.02101907 0.03591746
+ 0.00729535 0.03543752 0.01325536 0.04434911]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[47.72727273 47.72727273 56.81818182 43.18181818 43.18181818 52.27272727
- 47.72727273 43.18181818 61.36363636 40.90909091]</t>
+          <t>[36.36363636 40.90909091 52.27272727 47.72727273 43.18181818 52.27272727
+ 47.72727273 40.90909091 59.09090909 40.90909091]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Regression Tree &amp; 0.58 $\pm$ 0.31 &amp; 2.29 $\pm$ 1.15 &amp; 0.05 $\pm$ 2.69 &amp; 48.41 $\pm$ 6.27 &amp; "-"</t>
+          <t>Regression Tree &amp; 0.54 $\pm$ 0.25 &amp; 2.18 $\pm$ 0.97 &amp; 0.04 $\pm$ 2.97 &amp; 46.14 $\pm$ 6.59 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -659,22 +659,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.54 (0.20)</t>
+          <t>0.53 (0.19)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.15 (0.74)</t>
+          <t>2.10 (0.69)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.04 (0.02)</t>
+          <t>0.04 (0.03)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>47.73 (5.18)</t>
+          <t>47.05 (4.55)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -684,31 +684,31 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>max\_depth: 4, max\_features: 8, n\_estimators: 150 \\</t>
+          <t>max\_depth: 4, max\_features: 2, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.41101174 0.99874481 0.60392301 0.40167455 0.52554164 0.45987439
- 0.3153626  0.71986944 0.29257552 0.6616647 ]</t>
+          <t>[0.41911915 0.93657344 0.53261443 0.39069761 0.52259484 0.4590084
+ 0.30856201 0.73304669 0.2889047  0.66628855]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[1.81788468 3.5857115  2.76428798 1.53213341 1.88798672 1.8643954
- 1.5221515  2.66244558 1.03885601 2.87181654]</t>
+          <t>[1.85374335 3.36250273 2.43789295 1.49026333 1.87740047 1.86088456
+ 1.48932732 2.71118177 1.02582192 2.89188538]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.09982532 0.07299103 0.04992819 0.04224629 0.03154737 0.04062971
- 0.01263014 0.03722917 0.01471426 0.03708364]</t>
+          <t>[0.10344805 0.0694697  0.04478563 0.04123125 0.03132567 0.04051441
+ 0.01233911 0.03800843 0.01451593 0.03737899]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[45.45454545 45.45454545 50.         50.         43.18181818 52.27272727
- 52.27272727 38.63636364 56.81818182 43.18181818]</t>
+          <t>[43.18181818 50.         50.         43.18181818 43.18181818 52.27272727
+ 50.         40.90909091 54.54545455 43.18181818]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Random Forest &amp; 0.54 $\pm$ 0.20 &amp; 2.15 $\pm$ 0.74 &amp; 0.04 $\pm$ 2.47 &amp; 47.73 $\pm$ 5.18 &amp; "-"</t>
+          <t>Random Forest &amp; 0.53 $\pm$ 0.19 &amp; 2.10 $\pm$ 0.69 &amp; 0.04 $\pm$ 2.51 &amp; 47.05 $\pm$ 4.55 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -837,20 +837,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0.49136513 0.7227687  1.01222739 0.89694553 1.98416834 1.37833007
- 3.20772544 2.50579563 1.88757427 1.9149762 ]</t>
+          <t>[0.49136513 0.7227687  1.01222739 0.89694553 1.98416835 1.37833022
+ 3.20772537 2.5053578  1.88894204 1.9149762 ]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[ 2.17328376  2.59489714  4.63318658  3.4212778   7.12804315  5.58794385
- 15.48263538  9.26771451  6.70226222  8.31155162]</t>
+          <t>[ 2.17328376  2.59489714  4.63318658  3.4212778   7.12804317  5.58794444
+ 15.48263506  9.2660952   6.7071188   8.31155162]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.12390898 0.05795965 0.10051516 0.10480456 0.13962852 0.14285587
- 0.14685896 0.13932908 0.11505971 0.11373523]</t>
+          <t>[0.12390898 0.05795965 0.10051516 0.10480456 0.13962852 0.14285589
+ 0.14685895 0.13930486 0.11514445 0.11373523]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.55 (0.24)</t>
+          <t>0.55 (0.26)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.21 (0.91)</t>
+          <t>2.21 (0.98)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>46.82 (6.36)</t>
+          <t>46.14 (6.51)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -906,31 +906,31 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.05, max\_depth: 4, max\_features: 2, n\_estimators: 150 \\</t>
+          <t>learning\_rate: 0.05, max\_depth: 4, max\_features: 2, n\_estimators: 200 \\</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.42815489 1.10692934 0.65706816 0.45304094 0.44085778 0.45175171
- 0.25219477 0.73274503 0.28470589 0.72790275]</t>
+          <t>[0.42690614 1.13781217 0.7019534  0.44953872 0.41682202 0.43485039
+ 0.22577411 0.72160869 0.27853839 0.73801685]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[1.89370796 3.97411756 3.00754495 1.72806357 1.58376344 1.83146493
- 1.21726117 2.71006607 1.0109131  3.15930888]</t>
+          <t>[1.88818483 4.08499365 3.21299456 1.71470482 1.49741597 1.7629446
+ 1.08973736 2.66887821 0.98901396 3.20320701]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.10307095 0.07489733 0.05245062 0.0468968  0.02502245 0.03997628
- 0.00969463 0.03801494 0.01422602 0.04127147]</t>
+          <t>[0.10276253 0.07705352 0.05521139 0.04643997 0.02320584 0.03807478
+ 0.00844296 0.03743637 0.01395504 0.04186219]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[40.90909091 50.         52.27272727 38.63636364 43.18181818 56.81818182
- 50.         38.63636364 54.54545455 43.18181818]</t>
+          <t>[40.90909091 47.72727273 47.72727273 38.63636364 43.18181818 56.81818182
+ 50.         40.90909091 56.81818182 38.63636364]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>GBM \cite{friedman2001greedy} &amp; 0.55 $\pm$ 0.24 &amp; 2.21 $\pm$ 0.91 &amp; 0.04 $\pm$ 2.65 &amp; 46.82 $\pm$ 6.36 &amp; "-"</t>
+          <t>GBM \cite{friedman2001greedy} &amp; 0.55 $\pm$ 0.26 &amp; 2.21 $\pm$ 0.98 &amp; 0.04 $\pm$ 2.71 &amp; 46.14 $\pm$ 6.51 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1133,20 +1133,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[0.39053545 0.3439836  0.25302256 0.23400023 0.21310608 0.16637521
- 0.24135412 0.18910344 0.27247591 0.30270724]</t>
+          <t>[0.39343576 0.34232999 0.25217791 0.2339802  0.21391122 0.16636891
+ 0.23271035 0.18854783 0.2724746  0.30301432]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[1.72731905 1.23497609 1.1581397  0.89256234 0.76557484 0.67450849
- 1.16493694 0.69940127 0.96748776 1.31383713]</t>
+          <t>[1.74014699 1.22903928 1.15427356 0.89248593 0.76846725 0.67448296
+ 1.1232163  0.69734637 0.96748309 1.31516996]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.09363805 0.02628425 0.02141055 0.02283175 0.01204804 0.01470629
- 0.00852473 0.0079547  0.01395269 0.01440502]</t>
+          <t>[0.09466699 0.02608418 0.02113707 0.02298083 0.01201129 0.01469597
+ 0.00808557 0.00787305 0.01394399 0.01443772]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MLP &amp; 0.26 $\pm$ 0.07 &amp; 1.06 $\pm$ 0.31 &amp; 0.02 $\pm$ 2.40 &amp; 48.86 $\pm$ 6.45 &amp; "-"</t>
+          <t>MLP &amp; 0.26 $\pm$ 0.07 &amp; 1.06 $\pm$ 0.31 &amp; 0.02 $\pm$ 2.44 &amp; 48.86 $\pm$ 6.45 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.25 (0.05)</t>
+          <t>0.26 (0.06)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.00 (0.21)</t>
+          <t>1.05 (0.28)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>47.73 (5.93)</t>
+          <t>47.95 (6.05)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1207,26 +1207,26 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0.29453554 0.32545008 0.25437508 0.22850437 0.25428928 0.1792749
- 0.19818272 0.18401518 0.27445891 0.296149  ]</t>
+          <t>[0.37376077 0.32423996 0.24906816 0.22976124 0.31035941 0.16646271
+ 0.19757068 0.18406771 0.27448682 0.29589586]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[1.30271618 1.16843671 1.16433049 0.8715991  0.91352376 0.72680565
- 0.95656277 0.68058229 0.97452884 1.28537246]</t>
+          <t>[1.65312546 1.16409213 1.14003957 0.87639328 1.11495341 0.67486322
+ 0.95360865 0.68077659 0.97462795 1.28427378]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.0631418  0.02456203 0.02133047 0.02200518 0.0130526  0.01571386
- 0.00678537 0.00777144 0.01394234 0.01396989]</t>
+          <t>[0.0882775  0.02483054 0.02134748 0.02194476 0.01601808 0.01455969
+ 0.00678286 0.0077566  0.01392735 0.01398839]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[52.27272727 43.18181818 40.90909091 47.72727273 43.18181818 45.45454545
- 59.09090909 45.45454545 43.18181818 56.81818182]</t>
+          <t>[50.         43.18181818 40.90909091 45.45454545 45.45454545 45.45454545
+ 61.36363636 45.45454545 45.45454545 56.81818182]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>CNN &amp; 0.25 $\pm$ 0.05 &amp; 1.00 $\pm$ 0.21 &amp; 0.02 $\pm$ 1.53 &amp; 47.73 $\pm$ 5.93 &amp; "-"</t>
+          <t>CNN &amp; 0.26 $\pm$ 0.06 &amp; 1.05 $\pm$ 0.28 &amp; 0.02 $\pm$ 2.25 &amp; 47.95 $\pm$ 6.05 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.80 (5.99)</t>
+          <t>8.78 (5.98)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>42.50 (5.09)</t>
+          <t>41.59 (5.48)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1281,25 +1281,25 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.22356903 0.74792263 1.06300356 0.96171108 2.20682736 1.64532814
- 4.24742281 3.69923027 3.21366839 3.58687106]</t>
+          <t>[0.22357016 0.74747046 1.06218757 0.96405051 2.19779244 1.6421906
+ 4.24198107 3.69426639 3.20887721 3.57925852]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[ 0.98883479  2.68520521  4.86560025  3.66831725  7.92793651  6.67039152
- 20.50091251 13.68164656 11.41086133 15.56805984]</t>
+          <t>[ 0.98883982  2.68358184  4.86186529  3.67724067  7.89547893  6.65767152
+ 20.47464705 13.66328759 11.39384915 15.5350192 ]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[0.05008705 0.06004795 0.10568552 0.11264738 0.15542927 0.1709688
- 0.19457308 0.2057779  0.19702589 0.21458264]</t>
+          <t>[0.04992656 0.06000554 0.10560051 0.11294552 0.15478126 0.17063417
+ 0.1943231  0.20550002 0.19672948 0.21412498]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[40.90909091 43.18181818 34.09090909 43.18181818 40.90909091 47.72727273
+          <t>[38.63636364 36.36363636 34.09090909 43.18181818 40.90909091 47.72727273
  50.         34.09090909 47.72727273 43.18181818]</t>
         </is>
       </c>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>RNN &amp; 2.16 $\pm$ 1.36 &amp; 8.80 $\pm$ 5.99 &amp; 0.15 $\pm$ 5.77 &amp; 42.50 $\pm$ 5.09 &amp; "-"</t>
+          <t>RNN &amp; 2.16 $\pm$ 1.36 &amp; 8.78 $\pm$ 5.98 &amp; 0.15 $\pm$ 5.76 &amp; 41.59 $\pm$ 5.48 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1325,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.06 (0.82)</t>
+          <t>1.12 (1.04)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.38 (3.68)</t>
+          <t>4.75 (4.94)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.07 (0.04)</t>
+          <t>0.07 (0.05)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1355,20 +1355,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[0.24216135 0.35976334 0.22014234 0.41800116 0.85316497 0.61576504
- 2.50722688 1.287681   2.0434192  2.09970955]</t>
+          <t>[0.22365641 0.34010455 0.21615894 0.36363643 1.01551075 0.68104025
+ 3.45082233 1.34556236 0.98039712 2.61896816]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[ 1.07106773  1.2916288   1.00763975  1.59440904  3.06496007  2.49639804
- 12.10155928  4.7625033   7.25562513  9.11334789]</t>
+          <t>[ 0.98922128  1.22104945  0.98940685  1.38704212  3.64818061  2.7610329
+ 16.65598409  4.97657818  3.48112318 11.36708076]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[0.05939917 0.02567084 0.01740118 0.04311275 0.05708325 0.06028559
- 0.11456802 0.07055353 0.12506238 0.12504695]</t>
+          <t>[0.04952954 0.0243591  0.01647978 0.03694997 0.06917697 0.06641536
+ 0.15796939 0.07385406 0.05823155 0.15634944]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>LSTM &amp; 1.06 $\pm$ 0.82 &amp; 4.38 $\pm$ 3.68 &amp; 0.07 $\pm$ 3.73 &amp; 41.82 $\pm$ 5.40 &amp; "-"</t>
+          <t>LSTM &amp; 1.12 $\pm$ 1.04 &amp; 4.75 $\pm$ 4.94 &amp; 0.07 $\pm$ 4.67 &amp; 41.82 $\pm$ 5.40 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1399,22 +1399,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.49 (0.32)</t>
+          <t>0.41 (0.31)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.94 (1.20)</t>
+          <t>1.63 (1.07)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.04 (0.03)</t>
+          <t>0.03 (0.02)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>47.73 (9.59)</t>
+          <t>49.09 (8.76)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1429,25 +1429,25 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[0.24205434 0.27726596 0.33551041 0.30529108 1.19608948 1.03125514
- 0.44408699 0.35047632 0.27168169 0.41173642]</t>
+          <t>[0.23451165 0.27591548 0.27523763 0.37187981 1.32840542 0.31769544
+ 0.3431986  0.36171558 0.25477624 0.36519047]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[1.0705944  0.99544523 1.53570465 1.16449168 4.29690224 4.18085328
- 2.14346179 1.29624077 0.96466771 1.78705536]</t>
+          <t>[1.03723346 0.99059669 1.25982295 1.41848541 4.77224181 1.28798195
+ 1.65650671 1.33780932 0.90464105 1.58503247]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[0.05936752 0.02101176 0.02766646 0.03062682 0.08244759 0.10503218
- 0.01905089 0.01768708 0.01362673 0.02170721]</t>
+          <t>[0.04738194 0.020726   0.02149927 0.03790838 0.09209602 0.02691511
+ 0.01422636 0.01822201 0.01303912 0.01910298]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[36.36363636 40.90909091 40.90909091 43.18181818 36.36363636 50.
+          <t>[38.63636364 50.         38.63636364 50.         40.90909091 43.18181818
  68.18181818 52.27272727 52.27272727 56.81818182]</t>
         </is>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>GRU &amp; 0.49 $\pm$ 0.32 &amp; 1.94 $\pm$ 1.20 &amp; 0.04 $\pm$ 3.00 &amp; 47.73 $\pm$ 9.59 &amp; "-"</t>
+          <t>GRU &amp; 0.41 $\pm$ 0.31 &amp; 1.63 $\pm$ 1.07 &amp; 0.03 $\pm$ 2.27 &amp; 49.09 $\pm$ 8.76 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1473,12 +1473,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.24 (0.04)</t>
+          <t>0.23 (0.04)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.95 (0.17)</t>
+          <t>0.95 (0.20)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>47.95 (5.79)</t>
+          <t>47.50 (6.14)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1503,25 +1503,25 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[0.2001803  0.28554689 0.24908604 0.22789829 0.2115301  0.21469422
- 0.20172235 0.18701811 0.26994454 0.30315639]</t>
+          <t>[0.22573792 0.30333401 0.25053009 0.22470786 0.20907197 0.16873073
+ 0.19922594 0.18677515 0.27314898 0.3030736 ]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[0.88538762 1.02517555 1.14012138 0.8692873  0.75991317 0.87040053
- 0.97364743 0.69168866 0.95849954 1.31578659]</t>
+          <t>[0.9984277  1.08903518 1.14673112 0.85711783 0.75108246 0.6840581
+ 0.96159809 0.69079009 0.96987766 1.31542723]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.04056739 0.0198469  0.02149361 0.02150397 0.01173918 0.01843592
- 0.00691333 0.00786145 0.01382931 0.01443626]</t>
+          <t>[0.04565023 0.02179122 0.02150693 0.02111574 0.01172022 0.01504838
+ 0.00679974 0.00786248 0.013938   0.01443581]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[36.36363636 45.45454545 45.45454545 52.27272727 45.45454545 43.18181818
+          <t>[36.36363636 45.45454545 43.18181818 52.27272727 40.90909091 45.45454545
  56.81818182 47.72727273 52.27272727 54.54545455]</t>
         </is>
       </c>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>WaveNet &amp; 0.24 $\pm$ 0.04 &amp; 0.95 $\pm$ 0.17 &amp; 0.02 $\pm$ 0.91 &amp; 47.95 $\pm$ 5.79 &amp; "-"</t>
+          <t>WaveNet &amp; 0.23 $\pm$ 0.04 &amp; 0.95 $\pm$ 0.20 &amp; 0.02 $\pm$ 1.05 &amp; 47.50 $\pm$ 6.14 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1547,12 +1547,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.29 (0.09)</t>
+          <t>0.30 (0.08)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.18 (0.39)</t>
+          <t>1.21 (0.35)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1562,51 +1562,51 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>49.09 (5.77)</t>
+          <t>48.86 (4.10)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5 (1)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>omega: 50, r: 0.5 \\</t>
+          <t>omega: 50, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[0.48005836 0.40704939 0.28668932 0.27075045 0.2846703  0.1801841
- 0.21172979 0.20634812 0.27244676 0.31052438]</t>
+          <t>[0.4655559  0.37295931 0.30651018 0.29492786 0.33606115 0.19972018
+ 0.20564945 0.21601968 0.27466488 0.3144426 ]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[2.12327445 1.46139601 1.31223987 1.03274106 1.02266634 0.73049166
- 1.02195005 0.76318094 0.96738424 1.34776577]</t>
+          <t>[2.05913082 1.33900521 1.40296428 1.12496254 1.20728584 0.80969368
+ 0.99260224 0.79895132 0.97526018 1.36477199]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[0.11852404 0.03133677 0.02615536 0.02767223 0.01623321 0.01574103
- 0.00725257 0.00927282 0.01387632 0.01480318]</t>
+          <t>[0.11435297 0.02861783 0.02791033 0.0301224  0.01942017 0.01719729
+ 0.00730403 0.00977162 0.0139654  0.01497698]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[54.54545455 47.72727273 36.36363636 52.27272727 50.         43.18181818
- 54.54545455 47.72727273 47.72727273 56.81818182]</t>
+          <t>[54.54545455 47.72727273 40.90909091 52.27272727 50.         43.18181818
+ 52.27272727 47.72727273 47.72727273 52.27272727]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[3. 4. 4. 5. 5. 5. 5. 5. 5. 5.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>eTS &amp; 0.29 $\pm$ 0.09 &amp; 1.18 $\pm$ 0.39 &amp; 0.03 $\pm$ 3.11 &amp; 49.09 $\pm$ 5.77 &amp; 5 $\pm$ 1</t>
+          <t>eTS &amp; 0.30 $\pm$ 0.08 &amp; 1.21 $\pm$ 0.35 &amp; 0.03 $\pm$ 2.96 &amp; 48.86 $\pm$ 4.10 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.37 (0.18)</t>
+          <t>0.30 (0.08)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.51 (0.69)</t>
+          <t>1.21 (0.35)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1636,51 +1636,51 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>47.73 (4.87)</t>
+          <t>48.86 (4.10)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>56 (38)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>omega: 250, r: 0.1 \\</t>
+          <t>omega: 50, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[0.4486543  0.83173985 0.4329338  0.29429963 0.20665647 0.26213759
- 0.44570409 0.22258034 0.26711251 0.30445083]</t>
+          <t>[0.4655559  0.37295931 0.30651018 0.29492786 0.33606115 0.19972018
+ 0.20564945 0.21601968 0.27466488 0.3144426 ]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[1.98437587 2.9861273  1.98163289 1.12256625 0.74240488 1.06274265
- 2.15126702 0.82321599 0.94844379 1.32140481]</t>
+          <t>[2.05913082 1.33900521 1.40296428 1.12496254 1.20728584 0.80969368
+ 0.99260224 0.79895132 0.97526018 1.36477199]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[0.11357309 0.06130309 0.03767878 0.03139447 0.0118981  0.02354372
- 0.01817838 0.01003315 0.01357411 0.01451818]</t>
+          <t>[0.11435297 0.02861783 0.02791033 0.0301224  0.01942017 0.01719729
+ 0.00730403 0.00977162 0.0139654  0.01497698]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[40.90909091 50.         40.90909091 47.72727273 45.45454545 43.18181818
- 56.81818182 50.         50.         52.27272727]</t>
+          <t>[54.54545455 47.72727273 40.90909091 52.27272727 50.         43.18181818
+ 52.27272727 47.72727273 47.72727273 52.27272727]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[ 50.  95. 140.  12.  57.   3.  44.  83.  41.  37.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Simpl\_eTS &amp; 0.37 $\pm$ 0.18 &amp; 1.51 $\pm$ 0.69 &amp; 0.03 $\pm$ 3.05 &amp; 47.73 $\pm$ 4.87 &amp; 56 $\pm$ 38</t>
+          <t>Simpl\_eTS &amp; 0.30 $\pm$ 0.08 &amp; 1.21 $\pm$ 0.35 &amp; 0.03 $\pm$ 2.96 &amp; 48.86 $\pm$ 4.10 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1695,66 +1695,66 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.29 (0.09)</t>
+          <t>0.55 (0.60)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.17 (0.38)</t>
+          <t>2.12 (2.12)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.03 (0.03)</t>
+          <t>0.04 (0.05)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>50.45 (6.17)</t>
+          <t>49.32 (5.29)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5 (0)</t>
+          <t>4 (1)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>mu: 0.7, omega: 50 \\</t>
+          <t>mu: 0.3, omega: 250 \\</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[0.46319264 0.43602662 0.28267225 0.26534777 0.28402568 0.18307372
- 0.19690265 0.21535569 0.26789589 0.30337993]</t>
+          <t>[0.43283731 0.41165841 0.29336419 0.28199679 2.32351401 0.21685269
+ 0.22278097 0.46079577 0.28238051 0.54430813]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[2.04867821 1.56543057 1.29385284 1.01213331 1.02035056 0.7422066
- 0.95038431 0.79649554 0.95122536 1.31675679]</t>
+          <t>[1.91441812 1.4779434  1.34279219 1.07563871 8.34712849 0.87915129
+ 1.07529046 1.70425857 1.00265629 2.36245502]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[0.11924554 0.03356494 0.02555851 0.02732728 0.01652335 0.0161035
- 0.00705422 0.01000073 0.01355201 0.01449485]</t>
+          <t>[0.11068152 0.03164796 0.02486629 0.02924495 0.15633134 0.01736479
+ 0.00773591 0.02367997 0.01422238 0.02863215]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[56.81818182 47.72727273 38.63636364 56.81818182 50.         40.90909091
- 56.81818182 50.         54.54545455 52.27272727]</t>
+          <t>[56.81818182 54.54545455 43.18181818 56.81818182 47.72727273 45.45454545
+ 47.72727273 47.72727273 40.90909091 52.27272727]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[4. 5. 5. 5. 5. 5. 5. 5. 5. 5.]</t>
+          <t>[3. 3. 3. 3. 3. 3. 3. 4. 5. 5.]</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>exTS &amp; 0.29 $\pm$ 0.09 &amp; 1.17 $\pm$ 0.38 &amp; 0.03 $\pm$ 3.13 &amp; 50.45 $\pm$ 6.17 &amp; 5 $\pm$ 0</t>
+          <t>exTS &amp; 0.55 $\pm$ 0.60 &amp; 2.12 $\pm$ 2.12 &amp; 0.04 $\pm$ 4.62 &amp; 49.32 $\pm$ 5.29 &amp; 4 $\pm$ 1</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>alpha: 0.01, beta: 0.001, lambda1: 0.001, r: 0.25, s: 10000 \\</t>
+          <t>alpha: 0.01, beta: 0.001, lambda1: 0.001, omega: 10000, sigma: 0.75 \\</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1843,12 +1843,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.53 (0.28)</t>
+          <t>0.52 (0.26)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.12 (0.98)</t>
+          <t>2.07 (0.98)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1858,51 +1858,51 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>51.14 (6.68)</t>
+          <t>51.59 (5.75)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20 (5)</t>
+          <t>14 (4)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>alpha: 0.01, lambda1: 0.5, omega: 10000, sigma: 0.001, w: 10 \\</t>
+          <t>alpha: 0.001, lambda1: 0.1, omega: 10000, sigma: 0.001, w: 10 \\</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[0.4033129  1.23082776 0.6156263  0.43732966 0.32885103 0.65205983
- 0.25396188 0.68937469 0.2601319  0.4649991 ]</t>
+          <t>[0.38394464 1.12944684 0.68332014 0.35192075 0.3403361  0.6906143
+ 0.19631406 0.68121113 0.28511053 0.44866835]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[1.78383308 4.41893988 2.81785649 1.66813504 1.18138379 2.6435422
- 1.22579043 2.54966038 0.92365755 2.01823086]</t>
+          <t>[1.69816823 4.05496028 3.12770601 1.34235425 1.22264345 2.79984743
+ 0.94754337 2.51946737 1.01234986 1.94735065]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[0.09548798 0.08509191 0.05000429 0.04498458 0.0175319  0.0548694
- 0.00884131 0.03639845 0.01318335 0.02263286]</t>
+          <t>[0.08605206 0.07406221 0.05452018 0.03657444 0.01898132 0.05797677
+ 0.00753912 0.03487501 0.01423007 0.02075356]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[43.18181818 56.81818182 47.72727273 61.36363636 45.45454545 56.81818182
- 59.09090909 50.         50.         40.90909091]</t>
+          <t>[40.90909091 47.72727273 50.         56.81818182 45.45454545 59.09090909
+ 56.81818182 56.81818182 54.54545455 47.72727273]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[10. 15. 16. 19. 19. 21. 23. 24. 26. 27.]</t>
+          <t>[ 8. 11. 11. 12. 13. 15. 16. 18. 19. 20.]</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>eMG &amp; 0.53 $\pm$ 0.28 &amp; 2.12 $\pm$ 0.98 &amp; 0.04 $\pm$ 2.81 &amp; 51.14 $\pm$ 6.68 &amp; 20 $\pm$ 5</t>
+          <t>eMG &amp; 0.52 $\pm$ 0.26 &amp; 2.07 $\pm$ 0.98 &amp; 0.04 $\pm$ 2.53 &amp; 51.59 $\pm$ 5.75 &amp; 14 $\pm$ 4</t>
         </is>
       </c>
     </row>
@@ -1917,22 +1917,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.19 (2.61)</t>
+          <t>0.30 (0.08)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.54 (9.60)</t>
+          <t>1.21 (0.28)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.08 (0.14)</t>
+          <t>0.02 (0.01)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>50.68 (5.75)</t>
+          <t>48.18 (6.17)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1942,41 +1942,41 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>alpha: 0.01, beta: 0.01, e\_utility: 0.05, lambda1: 0.5, omega: 100, pi: 0.3, sigma: 0.1 \\</t>
+          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 10000, pi: 0.3, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[0.52416348 0.44609941 0.24115113 0.28635371 0.22442033 0.19324321
- 0.37816941 9.004983   0.29531675 0.35368492]</t>
+          <t>[0.23766991 0.42962767 0.37011068 0.33644731 0.39671417 0.21397701
+ 0.21645155 0.22724043 0.27982543 0.31912475]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[ 2.31834923  1.60159408  1.10380156  1.09225763  0.80622082  0.78343515
-  1.82529931 33.30503526  1.04858935  1.53509505]</t>
+          <t>[1.05120229 1.54245694 1.69407769 1.28333288 1.42517933 0.86749289
+ 1.04474042 0.84045139 0.9935839  1.38509389]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[0.12981244 0.03441988 0.02104987 0.02978902 0.01207216 0.01660687
- 0.01492079 0.50257134 0.01526289 0.01803741]</t>
+          <t>[0.04936052 0.03043007 0.03276385 0.03417538 0.02290264 0.01813513
+ 0.00767645 0.0103342  0.01417504 0.0151677 ]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[54.54545455 47.72727273 38.63636364 56.81818182 45.45454545 47.72727273
- 59.09090909 50.         52.27272727 54.54545455]</t>
+          <t>[52.27272727 52.27272727 36.36363636 45.45454545 56.81818182 50.
+ 43.18181818 50.         40.90909091 54.54545455]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[2. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>ePL+ &amp; 1.19 $\pm$ 2.61 &amp; 4.54 $\pm$ 9.60 &amp; 0.08 $\pm$ 14.49 &amp; 50.68 $\pm$ 5.75 &amp; 1 $\pm$ 0</t>
+          <t>ePL+ &amp; 0.30 $\pm$ 0.08 &amp; 1.21 $\pm$ 0.28 &amp; 0.02 $\pm$ 1.24 &amp; 48.18 $\pm$ 6.17 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.61 (0.39)</t>
+          <t>0.62 (0.14)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.40 (1.41)</t>
+          <t>2.56 (0.73)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2006,51 +2006,51 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>50.23 (3.86)</t>
+          <t>50.00 (6.10)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>31 (5)</t>
+          <t>11 (7)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>alpha: 0.1, beta: 0.25, e\_utility: 0.03, lambda1: 1e-07, sigma: 50 \\</t>
+          <t>alpha: 0.05, beta: 0.01, e\_utility: 0.03, lambda1: 1e-07, sigma: 10 \\</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[0.42759885 1.10514791 0.55133099 0.40500875 1.3585823  1.09725015
- 0.26280157 0.28921153 0.28849305 0.31276613]</t>
+          <t>[0.59241308 0.72548357 0.81064065 0.38993907 0.62857304 0.65021264
+ 0.67109813 0.67668835 0.34962632 0.74993634]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[1.89124865 3.96772184 2.52356277 1.54485125 4.88065102 4.44840631
- 1.26845672 1.06965223 1.02436027 1.35749564]</t>
+          <t>[2.62021386 2.60464411 3.71047991 1.48737001 2.25812278 2.63605342
+ 3.23916987 2.50273982 1.24142786 3.25494105]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[0.10360302 0.07610253 0.04233175 0.03935026 0.07769876 0.08265825
- 0.01034077 0.01413827 0.01408221 0.01535122]</t>
+          <t>[0.14486037 0.04520581 0.04986762 0.04153162 0.03338037 0.04864591
+ 0.02687237 0.02945054 0.0176478  0.03954795]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[47.72727273 47.72727273 50.         54.54545455 52.27272727 52.27272727
- 54.54545455 52.27272727 50.         40.90909091]</t>
+          <t>[56.81818182 59.09090909 50.         50.         43.18181818 52.27272727
+ 54.54545455 40.90909091 40.90909091 52.27272727]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[17. 33. 33. 33. 33. 33. 33. 33. 33. 33.]</t>
+          <t>[ 2.  4.  5.  8.  9. 11. 14. 17. 19. 23.]</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>ePL-KRLS-DISCO &amp; 0.61 $\pm$ 0.39 &amp; 2.40 $\pm$ 1.41 &amp; 0.05 $\pm$ 3.29 &amp; 50.23 $\pm$ 3.86 &amp; 31 $\pm$ 5</t>
+          <t>ePL-KRLS-DISCO &amp; 0.62 $\pm$ 0.14 &amp; 2.56 $\pm$ 0.73 &amp; 0.05 $\pm$ 3.38 &amp; 50.00 $\pm$ 6.10 &amp; 11 $\pm$ 7</t>
         </is>
       </c>
     </row>
@@ -2065,66 +2065,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.20 (0.51)</t>
+          <t>0.96 (0.37)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.86 (2.25)</t>
+          <t>4.00 (1.90)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.09 (0.01)</t>
+          <t>0.06 (0.02)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>52.95 (6.02)</t>
+          <t>49.77 (4.92)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3 (0)</t>
+          <t>7 (0)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>fuzzy\_operator: min, rules: 3 \\</t>
+          <t>fuzzy\_operator: prod, rules: 7 \\</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[0.32765998 1.18294199 0.76472779 0.63531316 1.56027978 0.92422182
- 1.94367061 1.78840563 1.24561474 1.65284821]</t>
+          <t>[0.36268486 0.72821444 1.09457446 1.00507234 0.75423426 1.00885431
+ 1.69152241 0.95284314 0.61531881 1.43457439]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[1.44922396 4.24701953 3.50032666 2.42331636 5.60524093 3.74692516
- 9.38145859 6.61443921 4.42283875 7.17384019]</t>
+          <t>[1.60413727 2.61444854 5.01010716 3.8337129  2.70955554 4.09003718
+ 8.16442218 3.52410154 2.18482953 6.22646857]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.07961819 0.09376132 0.07398646 0.06864188 0.10842904 0.0934045
- 0.08859773 0.09850729 0.07453128 0.09803342]</t>
+          <t>[0.09104094 0.05782809 0.06636652 0.07279633 0.04952484 0.06852773
+ 0.06267005 0.05074655 0.03353563 0.07437198]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[56.81818182 45.45454545 59.09090909 45.45454545 59.09090909 45.45454545
- 56.81818182 50.         50.         61.36363636]</t>
+          <t>[50.         43.18181818 52.27272727 50.         61.36363636 52.27272727
+ 43.18181818 50.         47.72727273 47.72727273]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[3. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
+          <t>[7. 7. 7. 7. 7. 7. 7. 7. 7. 7.]</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NMR &amp; 1.20 $\pm$ 0.51 &amp; 4.86 $\pm$ 2.25 &amp; 0.09 $\pm$ 1.23 &amp; 52.95 $\pm$ 6.02 &amp; 3 $\pm$ 0</t>
+          <t>NMR &amp; 0.96 $\pm$ 0.37 &amp; 4.00 $\pm$ 1.90 &amp; 0.06 $\pm$ 1.51 &amp; 49.77 $\pm$ 4.92 &amp; 7 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2213,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.29 (0.08)</t>
+          <t>0.29 (0.09)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.17 (0.34)</t>
+          <t>1.19 (0.38)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2228,51 +2228,51 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>48.41 (4.07)</t>
+          <t>48.18 (5.06)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6 (0)</t>
+          <t>5 (0)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 6 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 5 \\</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[0.41459496 0.43801592 0.30939817 0.28522619 0.28535346 0.16993858
- 0.23181554 0.19521227 0.27648449 0.2955556 ]</t>
+          <t>[0.45938728 0.42768135 0.31239845 0.28884262 0.28416893 0.16999599
+ 0.23304366 0.19540783 0.2775653  0.30019951]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[1.83373308 1.57257262 1.41618321 1.08795684 1.02512055 0.6889549
- 1.11889733 0.72199486 0.98172112 1.28279693]</t>
+          <t>[2.03184732 1.53546924 1.42991616 1.10175123 1.02086518 0.68918765
+ 1.12482508 0.72271814 0.98555878 1.30295285]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.10325092 0.03226409 0.02823367 0.02875596 0.01588772 0.01473329
- 0.00815411 0.00845672 0.01370733 0.01403518]</t>
+          <t>[0.11393302 0.03126321 0.02838433 0.02897571 0.01583751 0.01472965
+ 0.00817552 0.00844334 0.01381997 0.01424208]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[54.54545455 47.72727273 43.18181818 45.45454545 54.54545455 43.18181818
- 50.         47.72727273 45.45454545 52.27272727]</t>
+          <t>[54.54545455 50.         38.63636364 50.         56.81818182 45.45454545
+ 50.         47.72727273 43.18181818 45.45454545]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[6. 6. 6. 6. 6. 6. 6. 6. 6. 6.]</t>
+          <t>[5. 5. 5. 5. 5. 5. 5. 5. 5. 5.]</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>NTSK-wRLS &amp; 0.29 $\pm$ 0.08 &amp; 1.17 $\pm$ 0.34 &amp; 0.03 $\pm$ 2.68 &amp; 48.41 $\pm$ 4.07 &amp; 6 $\pm$ 0</t>
+          <t>NTSK-wRLS &amp; 0.29 $\pm$ 0.09 &amp; 1.19 $\pm$ 0.38 &amp; 0.03 $\pm$ 2.98 &amp; 48.18 $\pm$ 5.06 &amp; 5 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2287,66 +2287,66 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.60 (0.99)</t>
+          <t>0.83 (0.33)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6.43 (3.85)</t>
+          <t>3.34 (1.41)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.12 (0.08)</t>
+          <t>0.06 (0.03)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>54.55 (6.10)</t>
+          <t>52.73 (4.52)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15 (1)</t>
+          <t>9 (0)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>error\_metric: CPPM, fuzzy\_operator: prod, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 15, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: RMSE, fuzzy\_operator: prod, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 9, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[0.243887   1.62933666 2.23997072 1.26437539 3.79087265 2.16950156
- 1.89338348 1.66788341 0.32303422 0.78440313]</t>
+          <t>[0.26725249 0.91655221 1.38829678 1.26581265 0.92753273 0.72379788
+ 0.62060005 0.87235498 0.41668296 0.87232369]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[ 1.07870018  5.84967369 10.25283689  4.82278945 13.61855406  8.79546425
-  9.13873914  6.16868635  1.14700655  3.40453688]</t>
+          <t>[1.18204459 3.29062216 6.35453859 4.82827165 3.33212317 2.93437835
+ 2.99543228 3.22641513 1.47952771 3.7861376 ]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[0.05934476 0.13979239 0.22034607 0.12282691 0.25568985 0.18530003
- 0.06701276 0.08449101 0.01747724 0.04479523]</t>
+          <t>[0.06662612 0.07484476 0.10688349 0.10652327 0.05784662 0.06246824
+ 0.02691873 0.04613867 0.02118941 0.05033323]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[52.27272727 47.72727273 59.09090909 47.72727273 63.63636364 63.63636364
- 59.09090909 50.         54.54545455 47.72727273]</t>
+          <t>[50.         45.45454545 52.27272727 45.45454545 54.54545455 52.27272727
+ 54.54545455 59.09090909 54.54545455 59.09090909]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[13. 15. 15. 15. 15. 15. 15. 15. 15. 15.]</t>
+          <t>[8. 9. 9. 9. 9. 9. 9. 9. 9. 9.]</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>GEN-NMR &amp; 1.60 $\pm$ 0.99 &amp; 6.43 $\pm$ 3.85 &amp; 0.12 $\pm$ 7.55 &amp; 54.55 $\pm$ 6.10 &amp; 15 $\pm$ 1</t>
+          <t>GEN-NMR &amp; 0.83 $\pm$ 0.33 &amp; 3.34 $\pm$ 1.41 &amp; 0.06 $\pm$ 2.74 &amp; 52.73 $\pm$ 4.52 &amp; 9 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2361,22 +2361,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.28 (0.07)</t>
+          <t>0.31 (0.09)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.13 (0.28)</t>
+          <t>1.26 (0.40)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.02 (0.02)</t>
+          <t>0.03 (0.02)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>50.45 (4.64)</t>
+          <t>50.45 (4.96)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2386,31 +2386,31 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, error\_metric: RMSE, fuzzy\_operator: max, lambda1: 0.99, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: RMSE, fuzzy\_operator: prod, lambda1: 0.95, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[0.34347872 0.44132628 0.28615587 0.28392535 0.28471556 0.16500277
- 0.22375709 0.21173834 0.2805268  0.29425202]</t>
+          <t>[0.37188124 0.51736837 0.25212462 0.29209947 0.22267071 0.18365637
+ 0.38909639 0.24642824 0.28826085 0.33184296]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[1.51918947 1.58445753 1.30979813 1.08299498 1.02282895 0.66894441
- 1.08000187 0.78311672 0.99607426 1.27713904]</t>
+          <t>[1.64481239 1.85746519 1.15402962 1.11417404 0.79993537 0.74456873
+ 1.87804024 0.91141774 1.02353577 1.44029461]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[0.07809536 0.03183798 0.02523522 0.02858849 0.01573847 0.01482739
- 0.00766082 0.00930853 0.01442511 0.01383963]</t>
+          <t>[0.08822409 0.03873095 0.02214086 0.03062621 0.01256937 0.01590818
+ 0.01550322 0.01196318 0.01466501 0.01710614]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[56.81818182 52.27272727 47.72727273 45.45454545 52.27272727 45.45454545
- 52.27272727 45.45454545 47.72727273 59.09090909]</t>
+          <t>[56.81818182 50.         40.90909091 50.         47.72727273 45.45454545
+ 52.27272727 50.         52.27272727 59.09090909]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>GEN-NTSK-RLS &amp; 0.28 $\pm$ 0.07 &amp; 1.13 $\pm$ 0.28 &amp; 0.02 $\pm$ 1.96 &amp; 50.45 $\pm$ 4.64 &amp; 1 $\pm$ 0</t>
+          <t>GEN-NTSK-RLS &amp; 0.31 $\pm$ 0.09 &amp; 1.26 $\pm$ 0.40 &amp; 0.03 $\pm$ 2.20 &amp; 50.45 $\pm$ 4.96 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2435,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.30 (0.10)</t>
+          <t>0.31 (0.08)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.21 (0.43)</t>
+          <t>1.23 (0.36)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2450,51 +2450,51 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>48.64 (4.45)</t>
+          <t>49.77 (4.48)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>7 (0)</t>
+          <t>13 (1)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 6 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: RMSE, fuzzy\_operator: prod, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 13, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.51263893 0.40673039 0.31622063 0.28507221 0.30139013 0.16919978
- 0.22658205 0.19583591 0.27981165 0.29473541]</t>
+          <t>[0.45667228 0.42442148 0.31864582 0.32111416 0.35689528 0.20106091
+ 0.19758633 0.21434634 0.26917074 0.30235874]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[2.26737673 1.46025074 1.44741111 1.08736952 1.08273163 0.6859597
- 1.093637   0.72430139 0.99353496 1.27923709]</t>
+          <t>[2.01983899 1.52376561 1.45851175 1.22484666 1.28213161 0.81512918
+ 0.95368422 0.79276245 0.95575201 1.31232453]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[0.12914982 0.03046198 0.02878113 0.02907568 0.01680659 0.01471813
- 0.00795027 0.00857754 0.01388816 0.01399557]</t>
+          <t>[0.11419655 0.03160579 0.02878352 0.03346252 0.02076679 0.01710952
+ 0.00708167 0.01002297 0.01355927 0.01445131]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[52.27272727 50.         40.90909091 52.27272727 54.54545455 43.18181818
- 50.         47.72727273 43.18181818 52.27272727]</t>
+          <t>[50.         45.45454545 40.90909091 50.         50.         45.45454545
+ 52.27272727 52.27272727 54.54545455 56.81818182]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[7. 7. 7. 7. 7. 7. 7. 7. 7. 7.]</t>
+          <t>[10. 12. 13. 13. 13. 13. 13. 13. 13. 13.]</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>GEN-NTSK-wRLS &amp; 0.30 $\pm$ 0.10 &amp; 1.21 $\pm$ 0.43 &amp; 0.03 $\pm$ 3.42 &amp; 48.64 $\pm$ 4.45 &amp; 7 $\pm$ 0</t>
+          <t>GEN-NTSK-wRLS &amp; 0.31 $\pm$ 0.08 &amp; 1.23 $\pm$ 0.36 &amp; 0.03 $\pm$ 2.96 &amp; 49.77 $\pm$ 4.48 &amp; 13 $\pm$ 1</t>
         </is>
       </c>
     </row>
@@ -2509,66 +2509,66 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.86 (0.32)</t>
+          <t>0.98 (0.41)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.49 (1.51)</t>
+          <t>3.99 (1.81)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.06 (0.01)</t>
+          <t>0.07 (0.02)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>51.59 (6.59)</t>
+          <t>49.09 (5.77)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5 (0)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>combination: median, n\_estimators: 50 \\</t>
+          <t>combination: weighted\_average, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[0.32995893 0.82012028 0.68970612 0.5962973  0.94624072 0.58155239
- 1.37504084 1.28091447 0.73263782 1.21821435]</t>
+          <t>[0.34467004 1.01238227 0.59333809 0.59069128 1.00491046 0.96287199
+ 1.61834665 1.65998263 0.84386543 1.21821183]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[1.4593921  2.94441054 3.15693607 2.27449563 3.39933087 2.35769514
- 6.63686975 4.73747719 2.60139741 5.28740329]</t>
+          <t>[1.5244586  3.63467297 2.71583845 2.25311222 3.61009947 3.90361839
+ 7.81122686 6.13946524 2.99633633 5.28739235]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[0.08010993 0.06738851 0.05678813 0.05397446 0.06397199 0.05474297
- 0.06228119 0.06971896 0.0414691  0.07161336]</t>
+          <t>[0.08350509 0.08490553 0.05076672 0.05731363 0.06840084 0.09735152
+ 0.07348438 0.09125447 0.04879995 0.07161321]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[47.72727273 43.18181818 56.81818182 43.18181818 61.36363636 56.81818182
- 52.27272727 59.09090909 52.27272727 43.18181818]</t>
+          <t>[52.27272727 45.45454545 52.27272727 47.72727273 54.54545455 52.27272727
+ 34.09090909 50.         54.54545455 47.72727273]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[5. 5. 5. 5. 5. 5. 5. 5. 5. 5.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>R-NMR &amp; 0.86 $\pm$ 0.32 &amp; 3.49 $\pm$ 1.51 &amp; 0.06 $\pm$ 1.04 &amp; 51.59 $\pm$ 6.59 &amp; 5 $\pm$ 0</t>
+          <t>R-NMR &amp; 0.98 $\pm$ 0.41 &amp; 3.99 $\pm$ 1.81 &amp; 0.07 $\pm$ 1.59 &amp; 49.09 $\pm$ 5.77 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.30 (0.08)</t>
+          <t>0.28 (0.07)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.21 (0.35)</t>
+          <t>1.12 (0.33)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>48.86 (4.69)</t>
+          <t>48.41 (6.75)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2608,41 +2608,41 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 6 \\</t>
+          <t>combination: median, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.44020205 0.41033748 0.32835221 0.30012505 0.33988024 0.1886355
- 0.20824176 0.20096592 0.27418072 0.30610552]</t>
+          <t>[0.41556545 0.38497491 0.29150636 0.27030726 0.26547195 0.17895988
+ 0.20064061 0.19319463 0.27212504 0.2974924 ]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[1.94699197 1.47320096 1.50294004 1.14478654 1.22100579 0.76475481
- 1.00511448 0.74327483 0.97354107 1.32858664]</t>
+          <t>[1.83802551 1.38214381 1.33428849 1.03105061 0.95369707 0.72552852
+ 0.96842623 0.71453259 0.9662419  1.29120321]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[0.10915953 0.03055888 0.02984825 0.03064017 0.01934464 0.01626654
- 0.00723066 0.00885994 0.01383445 0.01453376]</t>
+          <t>[0.10139544 0.02937452 0.02606815 0.02755751 0.01566089 0.01589081
+ 0.0068695  0.00860725 0.01371179 0.01420761]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[56.81818182 50.         38.63636364 47.72727273 50.         45.45454545
- 52.27272727 50.         45.45454545 52.27272727]</t>
+          <t>[54.54545455 43.18181818 34.09090909 59.09090909 45.45454545 43.18181818
+ 52.27272727 50.         50.         52.27272727]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[3. 3. 3. 6. 6. 6. 8. 7. 6. 7.]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>R-NTSK &amp; 0.30 $\pm$ 0.08 &amp; 1.21 $\pm$ 0.35 &amp; 0.03 $\pm$ 2.83 &amp; 48.86 $\pm$ 4.69 &amp; 6 $\pm$ 2</t>
+          <t>R-NTSK &amp; 0.28 $\pm$ 0.07 &amp; 1.12 $\pm$ 0.33 &amp; 0.03 $\pm$ 2.62 &amp; 48.41 $\pm$ 6.75 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2657,12 +2657,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.34 (0.10)</t>
+          <t>0.32 (0.09)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.38 (0.39)</t>
+          <t>1.29 (0.35)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2672,47 +2672,47 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>48.64 (5.86)</t>
+          <t>47.73 (7.11)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>6 (2)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[0.42199438 0.57520413 0.38471083 0.32214712 0.38347386 0.25219316
- 0.18758159 0.30402275 0.26154438 0.35095071]</t>
+          <t>[0.40667159 0.53719948 0.32761785 0.2978393  0.32701384 0.24298048
+ 0.18465179 0.30065808 0.25999392 0.33637002]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[1.86646033 2.06510816 1.76090577 1.22878674 1.37761406 1.0224265
- 0.90539464 1.12443171 0.92867286 1.52322779]</t>
+          <t>[1.79868839 1.92866321 1.49957871 1.13606786 1.17478375 0.98507702
+ 0.89125345 1.11198743 0.92316763 1.45994337]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[0.10551163 0.04164523 0.03350427 0.03390107 0.02232096 0.02163762
- 0.0068361  0.01517219 0.01307075 0.01791668]</t>
+          <t>[0.10132779 0.03962352 0.02846845 0.03138211 0.01902528 0.02084904
+ 0.00681653 0.01510817 0.01298106 0.01722917]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[56.81818182 52.27272727 34.09090909 45.45454545 50.         45.45454545
- 52.27272727 50.         47.72727273 52.27272727]</t>
+          <t>[54.54545455 40.90909091 31.81818182 56.81818182 45.45454545 43.18181818
+ 52.27272727 50.         50.         52.27272727]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[3. 3. 3. 6. 6. 6. 8. 7. 6. 7.]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>RF-NTSK &amp; 0.34 $\pm$ 0.10 &amp; 1.38 $\pm$ 0.39 &amp; 0.03 $\pm$ 2.68 &amp; 48.64 $\pm$ 5.86 &amp; "-"</t>
+          <t>RF-NTSK &amp; 0.32 $\pm$ 0.09 &amp; 1.29 $\pm$ 0.35 &amp; 0.03 $\pm$ 2.57 &amp; 47.73 $\pm$ 7.11 &amp; "-"</t>
         </is>
       </c>
     </row>
